--- a/src/test/resources/TestData/output/SmartScrappers_Team17_Hypothyroidism_To_Add.xlsx
+++ b/src/test/resources/TestData/output/SmartScrappers_Team17_Hypothyroidism_To_Add.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -79,6 +79,13 @@
     <t>3 mins</t>
   </si>
   <si>
+    <t>Heat the olive oil in a griller pan or a broad non-stick pan, add the zucchini and sauté on a medium flame for 1 minute.
+Add the coloured capsicum and sauté on a medium flame for 1 minute.
+Add the mushroom and little sea salt and sauté on a medium flame for 1 minute.
+Cool put in a lunch box, along with other ingredients. It can be taken to work with a dressing in a separate small container.
+Just before eating, mix the dressing and toss well. Eat immediately.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energy 459 cal
 Protein 7.7 g
 Carbohydrates 22 g
@@ -86,6 +93,47 @@
   </si>
   <si>
     <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>41505</t>
+  </si>
+  <si>
+    <t>minty quinoa recipe | vegetable quinoa for IBS | healthy Indian quinoa snack |</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-quinoa-ibs-recipe-41505r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup finely chopped mint leaves (phudina) leaves
+1 cup quinoa , washed and drained
+2 tsp olive oil
+1/2 cup chopped carrot
+1/4 cup chopped celery (ajmoda)
+1/2 tsp finely chopped green chillies
+1/4 cup chopped red pumpkin (bhopla / kaddu)
+2 bay leaves (tejpatta)
+salt to taste
+freshly ground black pepper (kalimirch) to taste
+</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>18 mins</t>
+  </si>
+  <si>
+    <t>For minty quinoa for ibs
+To make minty quinoa heat oil in a deep non-stick pan, add the carrots, celery and green chillies sauté on a medium flame for 2 minutes.
+Add the quinoa, red pumpkin, bayleaves, salt, pepper powder and 2½ cups of water and mix well. Cover with a lid and cook on a slow flame for 15 to 16 minutes, while stirring occasionally.
+Add the mint leaves and mix well.
+Serve minty quinoa immediately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy 208 cal
+Protein 7 g
+Carbohydrates 36.7 g
+</t>
   </si>
 </sst>
 </file>
@@ -130,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,12 +240,45 @@
       <c r="H2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="I2" s="0"/>
+      <c r="I2" t="s" s="0">
+        <v>17</v>
+      </c>
       <c r="J2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/output/SmartScrappers_Team17_Hypothyroidism_To_Add.xlsx
+++ b/src/test/resources/TestData/output/SmartScrappers_Team17_Hypothyroidism_To_Add.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/quinoa-avocado-veg-healthy-office-salad-42296r</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Veg</t>
   </si>
   <si>
     <t xml:space="preserve">1/4 cup cooked quinoa
@@ -229,56 +235,64 @@
       <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
